--- a/abc/unknown words.xlsx
+++ b/abc/unknown words.xlsx
@@ -467,15 +467,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25"/>
   <cols>
     <col min="1" max="1" width="62.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="104.140625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="28.28515625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
